--- a/Qantum Time-Card/GNSS/UBlox/RCB-F9T/Altium/ECAD/V1/V1/BOM/Bill of Materials-GNSS_MODULE_ZED-F9T-00B(V1I1).xlsx
+++ b/Qantum Time-Card/GNSS/UBlox/RCB-F9T/Altium/ECAD/V1/V1/BOM/Bill of Materials-GNSS_MODULE_ZED-F9T-00B(V1I1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\QUANTUM\QUANTUM\Qantum Time-Card\GNSS\UBlox\RCB-F9T\Altium\ECAD\V1\V1\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\QUANTUM\QUANTUM\QUANTUM\Qantum Time-Card\GNSS\UBlox\RCB-F9T\Altium\ECAD\V1\V1\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F88F5AA-F372-4475-8F7D-4499A28F9621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B691DE8-8208-4006-95F8-F7253C5A6537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1704" yWindow="348" windowWidth="20328" windowHeight="10956" xr2:uid="{A8DADF2E-BDF3-4C96-A026-11CD4557BBF0}"/>
+    <workbookView xWindow="5892" yWindow="1332" windowWidth="14412" windowHeight="10956" xr2:uid="{A8DADF2E-BDF3-4C96-A026-11CD4557BBF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-GNSS_MODULE_Z" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="98">
   <si>
     <t>Designator</t>
   </si>
@@ -162,9 +162,6 @@
     <t>131-3711-301</t>
   </si>
   <si>
-    <t>J10507-ND</t>
-  </si>
-  <si>
     <t>Rf Coaxial Board Mount Connector</t>
   </si>
   <si>
@@ -259,6 +256,81 @@
   </si>
   <si>
     <t>micropower Rail-to-Rail Input and Output Operational Amplifier, 5-pin SC-70, Pb-Free</t>
+  </si>
+  <si>
+    <t>Taiyo Yuden</t>
+  </si>
+  <si>
+    <t>Littelfuse</t>
+  </si>
+  <si>
+    <t>Stackpole Electronics</t>
+  </si>
+  <si>
+    <t>TI National Semiconductor</t>
+  </si>
+  <si>
+    <t>UMK105BJ104KV-F</t>
+  </si>
+  <si>
+    <t>GRM033R71C103KE14D</t>
+  </si>
+  <si>
+    <t>142-0711-301</t>
+  </si>
+  <si>
+    <t>LQG15HS47NJ02D</t>
+  </si>
+  <si>
+    <t>RMCF0402FT1K00</t>
+  </si>
+  <si>
+    <t>RMCF0402FT10K0</t>
+  </si>
+  <si>
+    <t>RMCF0402FT100K</t>
+  </si>
+  <si>
+    <t>SN74LVC3G07DCUR</t>
+  </si>
+  <si>
+    <t>LPV511MGX/NOPB</t>
+  </si>
+  <si>
+    <t>Farnell</t>
+  </si>
+  <si>
+    <t>Future Electronics</t>
+  </si>
+  <si>
+    <t>2779049</t>
+  </si>
+  <si>
+    <t>2990695</t>
+  </si>
+  <si>
+    <t>1128358</t>
+  </si>
+  <si>
+    <t>J717-ND</t>
+  </si>
+  <si>
+    <t>1091743</t>
+  </si>
+  <si>
+    <t>6297634</t>
+  </si>
+  <si>
+    <t>1731694</t>
+  </si>
+  <si>
+    <t>8519472</t>
+  </si>
+  <si>
+    <t>2460000</t>
+  </si>
+  <si>
+    <t>296-44295-1-ND</t>
   </si>
 </sst>
 </file>
@@ -638,17 +710,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005047BA-96FB-40E1-9AB5-98324588DBA4}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="19" customWidth="1"/>
-    <col min="3" max="4" width="16" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="7" width="16" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="24.77734375" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="9" max="9" width="77.6640625" customWidth="1"/>
+    <col min="10" max="10" width="25.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -719,11 +796,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="F3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="I3" s="2" t="s">
         <v>18</v>
       </c>
@@ -739,11 +824,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="F4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="I4" s="2" t="s">
         <v>21</v>
       </c>
@@ -759,13 +852,21 @@
       <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="I5" s="2" t="s">
         <v>25</v>
       </c>
@@ -809,11 +910,15 @@
       <c r="C7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="G7" s="2" t="s">
         <v>35</v>
       </c>
@@ -835,39 +940,51 @@
       <c r="C8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="G8" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="F9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="I9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>19</v>
@@ -875,47 +992,55 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="1">
         <v>6</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="F11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="I11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>19</v>
@@ -923,19 +1048,27 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1">
         <v>3</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="F12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="I12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>19</v>
@@ -943,19 +1076,27 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="F13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="I13" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>19</v>
@@ -963,27 +1104,27 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>31</v>
@@ -991,69 +1132,89 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="G15" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B16" s="1">
         <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="F17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="I17" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J17" s="1"/>
     </row>
